--- a/Actividad02/Actividad 02 - Diseño de integridad Base de datos - parte 1.xlsx
+++ b/Actividad02/Actividad 02 - Diseño de integridad Base de datos - parte 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamel\Documents\Universidad\CuatrimestreI2025\Auditoría de Sistemas\Auditoria-ISW1012-Actividades\Actividad02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C740081-E9D2-4CFE-8403-EFF219993AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C568659-A837-4694-9146-88670CF23261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A49F3D99-767D-41B4-B62A-39BE75E974FA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A49F3D99-767D-41B4-B62A-39BE75E974FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="136">
   <si>
     <t>#</t>
   </si>
@@ -225,10 +225,6 @@
     <t>Dificultad en la identificación de relaciones entre tablas.
 Mayor complejidad en el mantenimiento de la base de datos.
 Posible confusión en desarrollos futuros.</t>
-  </si>
-  <si>
-    <t>La nomenclatura de llaves foráneas debe fk_&lt;nombre tabla&gt;_&lt;nombre tabla referenciada&gt;
-(por ejemplo, fk_estudiantes_personas).</t>
   </si>
   <si>
     <t>1- Renombrar las llaves foráneas para que sigan el formato estándar:
@@ -312,10 +308,6 @@
   </si>
   <si>
     <t>Verificar que las restricciones de chequeo cumplan con la nomenclatura establecida en los criterios definidos.</t>
-  </si>
-  <si>
-    <t>La nomenclatura de las restricciones de chequeo debe ser ck_&lt;nombre tabla&gt;_&lt;nombre campo&gt;[_&lt;consecutivo&gt;].
-Si un mismo campo tiene más de una restricción de chequeo, debe agregarse un número consecutivo (_1, _2, etc.).</t>
   </si>
   <si>
     <t>Pamela Jesús Murillo-Yeustin Lewis Rosales</t>
@@ -1167,6 +1159,91 @@
       <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                            actividad02.cursos, actividad02.estudiantes, actividad02.evaluaciones, actividad02.personas
 Se adjunta resultado obtenido Referencia 003</t>
     </r>
+  </si>
+  <si>
+    <t>Se identificaron llaves primarias en el esquema actividad02 que no cumplen con la nomenclatura estándar definida, específicamente las llaves foráneas en las tablas cursos, estudiantes y personas.</t>
+  </si>
+  <si>
+    <t>El sistema no ha implementado correctamente la nomenclatura definida para las llaves primarias. Esto puede deberse a un error en la aplicación de los estándares o a una falta de conocimiento de las reglas de nomenclatura por parte de los desarrolladores de la base de datos.</t>
+  </si>
+  <si>
+    <t>El sistema no ha implementado correctamente la nomenclatura definida para las llaves únicas. Esto puede deberse a un error en la aplicación de los estándares o a una falta de conocimiento de las reglas de nomenclatura por parte de los desarrolladores de la base de datos.</t>
+  </si>
+  <si>
+    <t>El sistema no ha implementado correctamente la adición de las llaves foráneas necesarias según el diseño, esto pudo haber sido un error durante la creación de la base de datos o una eliminación posterior a esta.</t>
+  </si>
+  <si>
+    <t>Se identificó una columna en el esquema actividad02 donde no se cumple la existencia de una llave foránea que se encontraba en el diseño, especificamente en la tabla de estudiantes.</t>
+  </si>
+  <si>
+    <t>Se identificaron llaves únicas en el esquema actividad02 que no cumplen con la nomenclatura estándar definida, específicamente en las tablas de cursos, estudiantes, evaluaciones y personas.</t>
+  </si>
+  <si>
+    <t>Artículo III Insiso 1 - Llaves foráneas</t>
+  </si>
+  <si>
+    <t>Artículo I Insiso 1 - Llaves primarias</t>
+  </si>
+  <si>
+    <t>Artículo II Insiso 1 - Llaves únicas</t>
+  </si>
+  <si>
+    <t>Artículo III Insiso 2 - Llaves foráneas</t>
+  </si>
+  <si>
+    <t>Artículo IV Insiso 1 - Restricciones de chequeo</t>
+  </si>
+  <si>
+    <t>Dificultad en la identificación de llaves primarias en las tablas.
+Incremento en la complejidad del mantenimiento y documentación de la base de datos.
+Incumplimiento de estándares que pueden generar confusión en futuros desarrollos.</t>
+  </si>
+  <si>
+    <t>Incumplimiento de estándares que puede generar errores en validaciones y consultas.
+Complejidad en el mantenimiento y documentación de las llaves únicas.
+Posible confusión en desarrollos futuros.</t>
+  </si>
+  <si>
+    <t>Posible inconsistencia en la integridad referencial entre tablas.
+Mayor dificultad para identificar y gestionar relaciones entre entidades y riesgo de errores en consultas y desarrollos por falta de claridad en la estructura de datos.</t>
+  </si>
+  <si>
+    <t>1- Renombrar las llaves primarias de las tablas cursos, estudiantes y personas para que cumplan con el formato establecido de pk_&lt;nombre_tabla&gt;
+2- Realizar auditorías periódicas para asegurar el cumplimiento de los estándares de nomenclatura.
+3- Capacitar a los desarrolladores sobre las reglas de nomenclatura de las llaves primarias para evitar repeticiones del error.</t>
+  </si>
+  <si>
+    <r>
+      <t>1- Renombrar las llaves únicas de las tablas cursos, estudiantes, evaluaciones y personas para que cumplan con el formato establecido de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uk_&lt;nombre tabla&gt;{_&lt;nombre campo&gt;}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2- Realizar auditorías periódicas para asegurar el cumplimiento de los estándares de nomenclatura.
+3- Capacitar a los desarrolladores sobre las reglas de nomenclatura de las llaves únicas para evitar repeticiones del error.</t>
+    </r>
+  </si>
+  <si>
+    <t>1- Crear una nueva llave foránea en la base de datos utilizando la columna estudiantes en donde se encuentra actualmente sin esta.
+2- Realizar auditorías periódicas para asegurar el cumplimiento de los estándares de diseño.
+3- Realizar capacitaciones y manuales en donde se hable con los desarrolladores para evitar errores de insersión de llaves foráneas.</t>
   </si>
 </sst>
 </file>
@@ -1387,9 +1464,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1401,15 +1475,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1419,6 +1484,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2072,7 +2147,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -2231,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB44A6A-0034-4084-A496-8529D30A0932}">
   <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -2249,168 +2324,168 @@
       <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>74</v>
+      <c r="B2" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>77</v>
+      <c r="B3" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>63</v>
+      <c r="A5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>93</v>
+      <c r="B6" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>78</v>
+      <c r="B7" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>112</v>
+      <c r="B8" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" ht="57.6">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>94</v>
+      <c r="B12" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>99</v>
+      <c r="B13" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="302.39999999999998">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="86.4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="86.4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" ht="43.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="26" t="s">
-        <v>119</v>
+      <c r="A16" s="16"/>
+      <c r="B16" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>106</v>
+      <c r="B17" s="17" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2421,172 +2496,172 @@
       <c r="B30" s="24"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>73</v>
+      <c r="B31" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>76</v>
+      <c r="B32" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>63</v>
+      <c r="A34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="57.6">
+      <c r="A41" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="20" t="s">
+    <row r="42" spans="1:2" ht="43.2">
+      <c r="A42" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="388.8">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="57.6">
-      <c r="A41" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="43.2">
-      <c r="A42" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="388.8">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
     <row r="44" spans="1:2" ht="72">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18" t="s">
-        <v>120</v>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="57.6">
-      <c r="A45" s="17"/>
-      <c r="B45" s="26" t="s">
-        <v>117</v>
+      <c r="A45" s="16"/>
+      <c r="B45" s="22" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="18" t="s">
-        <v>114</v>
+      <c r="B46" s="17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2597,164 +2672,164 @@
       <c r="B60" s="24"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="18" t="s">
-        <v>72</v>
+      <c r="B61" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>75</v>
+      <c r="B62" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>63</v>
+      <c r="A64" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>80</v>
+      <c r="B66" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="20" t="s">
-        <v>81</v>
+      <c r="B67" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="25"/>
+      <c r="B69" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="25"/>
+      <c r="B70" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="19" t="s">
+    <row r="71" spans="1:2" ht="57.6">
+      <c r="A71" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="57.6">
-      <c r="A71" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="72" spans="1:2" ht="64.8" customHeight="1">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="18" t="s">
-        <v>105</v>
+      <c r="B72" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="409.6">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18" t="s">
-        <v>108</v>
+      <c r="A73" s="16"/>
+      <c r="B73" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="43.2">
-      <c r="A74" s="17"/>
-      <c r="B74" s="18" t="s">
-        <v>115</v>
+      <c r="A74" s="16"/>
+      <c r="B74" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="43.2">
-      <c r="A75" s="17"/>
-      <c r="B75" s="26" t="s">
-        <v>116</v>
+      <c r="A75" s="16"/>
+      <c r="B75" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="18" t="s">
-        <v>103</v>
+      <c r="B76" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="17"/>
-      <c r="B77" s="18"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="17"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="17"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="17"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="17"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="17"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="17"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="17"/>
-      <c r="B83" s="18"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="17"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="17"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="17"/>
-      <c r="B85" s="18"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="17"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2765,144 +2840,144 @@
       <c r="B88" s="24"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>63</v>
+      <c r="A92" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="43.2">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="57.6">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="23" t="s">
-        <v>91</v>
+      <c r="B97" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="43.2">
-      <c r="A98" s="27" t="s">
+      <c r="A98" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="18" t="s">
-        <v>118</v>
+      <c r="B98" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="100.8">
-      <c r="A99" s="17"/>
-      <c r="B99" s="18" t="s">
+      <c r="A99" s="16"/>
+      <c r="B99" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="129.6">
+      <c r="A100" s="16"/>
+      <c r="B100" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="129.6">
-      <c r="A100" s="17"/>
-      <c r="B100" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="101" spans="1:2" ht="86.4">
-      <c r="A101" s="17"/>
-      <c r="B101" s="26" t="s">
-        <v>69</v>
+      <c r="A101" s="16"/>
+      <c r="B101" s="22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="18" t="s">
-        <v>101</v>
+      <c r="B102" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="17"/>
-      <c r="B103" s="18"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="17"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="17"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="17"/>
-      <c r="B105" s="18"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="17"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="17"/>
-      <c r="B106" s="18"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="17"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="17"/>
-      <c r="B107" s="18"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="17"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="17"/>
-      <c r="B108" s="18"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="17"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="17"/>
-      <c r="B109" s="18"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="17"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2913,144 +2988,144 @@
       <c r="B112" s="24"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="19" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B116" s="19" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="43.2">
+      <c r="A120" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="57.6">
+      <c r="A121" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="18"/>
+    </row>
+    <row r="123" spans="1:2" ht="389.4" customHeight="1">
+      <c r="A123" s="16"/>
+      <c r="B123" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="72">
+      <c r="A124" s="16"/>
+      <c r="B124" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="43.2">
-      <c r="A120" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="57.6">
-      <c r="A121" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="19"/>
-    </row>
-    <row r="123" spans="1:2" ht="389.4" customHeight="1">
-      <c r="A123" s="17"/>
-      <c r="B123" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="72">
-      <c r="A124" s="17"/>
-      <c r="B124" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="18" t="s">
-        <v>102</v>
+      <c r="B125" s="17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="17"/>
-      <c r="B126" s="18"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="17"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="17"/>
-      <c r="B127" s="18"/>
+      <c r="A127" s="16"/>
+      <c r="B127" s="17"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="17"/>
-      <c r="B128" s="18"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="17"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="17"/>
-      <c r="B129" s="18"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="17"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="17"/>
-      <c r="B130" s="18"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="17"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="17"/>
-      <c r="B131" s="18"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="17"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="17"/>
-      <c r="B132" s="18"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="17"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="17"/>
-      <c r="B133" s="18"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="17"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="17"/>
-      <c r="B134" s="18"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="17"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3073,10 +3148,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60956F3D-C987-4238-988D-0C3BF01C0F28}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -3085,129 +3160,164 @@
     <col min="2" max="2" width="82.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" ht="28.8">
       <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2">
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1">
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72.599999999999994" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1"/>
-    <row r="8" spans="1:2" ht="15" thickBot="1">
-      <c r="A8" s="16" t="s">
+      <c r="B6" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1"/>
+    <row r="8" spans="1:5" ht="15" thickBot="1">
+      <c r="A8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" ht="43.2">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.2">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1">
+      <c r="B12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" ht="72.599999999999994" thickBot="1">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1"/>
-    <row r="15" spans="1:2" ht="15" thickBot="1">
-      <c r="A15" s="16" t="s">
+      <c r="B13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1"/>
+    <row r="15" spans="1:5" ht="15" thickBot="1">
+      <c r="A15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.2">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="43.2">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1">
+      <c r="B19" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="72.599999999999994" thickBot="1">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1"/>
     <row r="22" spans="1:2" ht="15" thickBot="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:2" ht="90" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.2">
@@ -3226,12 +3336,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.8">
+    <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="78" customHeight="1" thickBot="1">
@@ -3239,22 +3349,22 @@
         <v>17</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1"/>
     <row r="29" spans="1:2" ht="15" thickBot="1">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:2" ht="41.4" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="43.2" customHeight="1">
@@ -3262,7 +3372,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2">
@@ -3270,15 +3380,15 @@
         <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="57.6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="151.19999999999999" customHeight="1" thickBot="1">
@@ -3286,16 +3396,16 @@
         <v>17</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
